--- a/names.xlsx
+++ b/names.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Docs\GitHub\CrimsonSand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61E4E91-B58B-4592-A1EC-DCF7108CD1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874177B6-AA87-4177-8439-7E3493A4E49C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{671A1DFB-4943-40E4-8EA6-EF2E9810A60F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{671A1DFB-4943-40E4-8EA6-EF2E9810A60F}"/>
   </bookViews>
   <sheets>
     <sheet name="Wedei" sheetId="1" r:id="rId1"/>
     <sheet name="Stygian" sheetId="2" r:id="rId2"/>
     <sheet name="Kebrini" sheetId="3" r:id="rId3"/>
+    <sheet name="Barbarian" sheetId="4" r:id="rId4"/>
+    <sheet name="Corrilian" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="anchor211263" localSheetId="1">Stygian!$B$189</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="1046">
   <si>
     <t>Anda</t>
   </si>
@@ -2387,6 +2389,804 @@
   </si>
   <si>
     <t>Yisugei Qatun</t>
+  </si>
+  <si>
+    <t>Anneliese</t>
+  </si>
+  <si>
+    <t>Charlotta</t>
+  </si>
+  <si>
+    <t>Frøydis</t>
+  </si>
+  <si>
+    <t>Grete</t>
+  </si>
+  <si>
+    <t>Guðrún</t>
+  </si>
+  <si>
+    <t>Helga</t>
+  </si>
+  <si>
+    <t>Hilda</t>
+  </si>
+  <si>
+    <t>Hildur</t>
+  </si>
+  <si>
+    <t>Katrín</t>
+  </si>
+  <si>
+    <t>Kerstin</t>
+  </si>
+  <si>
+    <t>Nikoletta</t>
+  </si>
+  <si>
+    <t>Ósk</t>
+  </si>
+  <si>
+    <t>Sigríður</t>
+  </si>
+  <si>
+    <t>Sigurrós</t>
+  </si>
+  <si>
+    <t>Steinunn</t>
+  </si>
+  <si>
+    <t>Unnur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agnes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Björk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caroline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amalia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagmar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elsa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erika </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estelle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heidi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hulda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judith </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marianne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monika </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susanne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valerie </t>
+  </si>
+  <si>
+    <t>Adolf</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Ágúst</t>
+  </si>
+  <si>
+    <t>Antonius</t>
+  </si>
+  <si>
+    <t>Árni</t>
+  </si>
+  <si>
+    <t>Bárður</t>
+  </si>
+  <si>
+    <t>Bernhard</t>
+  </si>
+  <si>
+    <t>Bjarni</t>
+  </si>
+  <si>
+    <t>Björgólfur</t>
+  </si>
+  <si>
+    <t>Bjorn</t>
+  </si>
+  <si>
+    <t>Brynjólfur</t>
+  </si>
+  <si>
+    <t>Davíð</t>
+  </si>
+  <si>
+    <t>Eggert</t>
+  </si>
+  <si>
+    <t>Eiður</t>
+  </si>
+  <si>
+    <t>Einar</t>
+  </si>
+  <si>
+    <t>Eldar</t>
+  </si>
+  <si>
+    <t>Ellert</t>
+  </si>
+  <si>
+    <t>Elmar</t>
+  </si>
+  <si>
+    <t>Friðrik</t>
+  </si>
+  <si>
+    <t>Frosti</t>
+  </si>
+  <si>
+    <t>Garðar</t>
+  </si>
+  <si>
+    <t>Gísli</t>
+  </si>
+  <si>
+    <t>Gissur</t>
+  </si>
+  <si>
+    <t>Grímur</t>
+  </si>
+  <si>
+    <t>Guðmundur</t>
+  </si>
+  <si>
+    <t>Gunnar</t>
+  </si>
+  <si>
+    <t>Gunnlaugur</t>
+  </si>
+  <si>
+    <t>Halldór</t>
+  </si>
+  <si>
+    <t>Hannes</t>
+  </si>
+  <si>
+    <t>Haraldur</t>
+  </si>
+  <si>
+    <t>Haukur</t>
+  </si>
+  <si>
+    <t>Hörður</t>
+  </si>
+  <si>
+    <t>Hrafn</t>
+  </si>
+  <si>
+    <t>Irnes</t>
+  </si>
+  <si>
+    <t>Jóhann</t>
+  </si>
+  <si>
+    <t>Jón</t>
+  </si>
+  <si>
+    <t>Kjartan</t>
+  </si>
+  <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>Kristján</t>
+  </si>
+  <si>
+    <t>Kristofer</t>
+  </si>
+  <si>
+    <t>Kristófer</t>
+  </si>
+  <si>
+    <t>Leif</t>
+  </si>
+  <si>
+    <t>Linus</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Njáll</t>
+  </si>
+  <si>
+    <t>Olaf</t>
+  </si>
+  <si>
+    <t>Ólafur</t>
+  </si>
+  <si>
+    <t>Óli</t>
+  </si>
+  <si>
+    <t>Otto</t>
+  </si>
+  <si>
+    <t>Páll</t>
+  </si>
+  <si>
+    <t>Ragnar</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Sigurður</t>
+  </si>
+  <si>
+    <t>Skúli</t>
+  </si>
+  <si>
+    <t>Snorri</t>
+  </si>
+  <si>
+    <t>Stefán</t>
+  </si>
+  <si>
+    <t>Sveinbjörn</t>
+  </si>
+  <si>
+    <t>Sveinn</t>
+  </si>
+  <si>
+    <t>Theodor</t>
+  </si>
+  <si>
+    <t>Þórður</t>
+  </si>
+  <si>
+    <t>Þorsteinn</t>
+  </si>
+  <si>
+    <t>Þorvaldur</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>Trausti</t>
+  </si>
+  <si>
+    <t>Vilhjálmur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abraham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baldur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakob </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustav </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingvar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rudolph </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel </t>
+  </si>
+  <si>
+    <t>Merek</t>
+  </si>
+  <si>
+    <t>Carac</t>
+  </si>
+  <si>
+    <t>Ulric</t>
+  </si>
+  <si>
+    <t>Tybalt</t>
+  </si>
+  <si>
+    <t>Borin</t>
+  </si>
+  <si>
+    <t>Sadon</t>
+  </si>
+  <si>
+    <t>Terrowin</t>
+  </si>
+  <si>
+    <t>Rowan</t>
+  </si>
+  <si>
+    <t>Forthwind</t>
+  </si>
+  <si>
+    <t>Althalos</t>
+  </si>
+  <si>
+    <t>Fendrel</t>
+  </si>
+  <si>
+    <t>Brom</t>
+  </si>
+  <si>
+    <t>Hadrian</t>
+  </si>
+  <si>
+    <t>Benedict</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Frederick</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Bryce</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Leofrick</t>
+  </si>
+  <si>
+    <t>Lief</t>
+  </si>
+  <si>
+    <t>Barda</t>
+  </si>
+  <si>
+    <t>Rulf</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Gavin</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>Jarin</t>
+  </si>
+  <si>
+    <t>Cassius</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Cedric</t>
+  </si>
+  <si>
+    <t>Peyton</t>
+  </si>
+  <si>
+    <t>Josef</t>
+  </si>
+  <si>
+    <t>Janshai</t>
+  </si>
+  <si>
+    <t>Doran</t>
+  </si>
+  <si>
+    <t>Asher</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Xalvador</t>
+  </si>
+  <si>
+    <t>Favian</t>
+  </si>
+  <si>
+    <t>Destrian</t>
+  </si>
+  <si>
+    <t>Dain</t>
+  </si>
+  <si>
+    <t>Lord Falk</t>
+  </si>
+  <si>
+    <t>Berinon</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Gorvenal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zane  </t>
+  </si>
+  <si>
+    <t>Letholdus</t>
+  </si>
+  <si>
+    <t>Terryn</t>
+  </si>
+  <si>
+    <t>Millicent</t>
+  </si>
+  <si>
+    <t>Ayleth</t>
+  </si>
+  <si>
+    <t>Anastas</t>
+  </si>
+  <si>
+    <t>Alianor</t>
+  </si>
+  <si>
+    <t>Cedany</t>
+  </si>
+  <si>
+    <t>Peronell</t>
+  </si>
+  <si>
+    <t>Thea</t>
+  </si>
+  <si>
+    <t>Jacquelyn</t>
+  </si>
+  <si>
+    <t>Gloriana</t>
+  </si>
+  <si>
+    <t>Arabella</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Hildegard</t>
+  </si>
+  <si>
+    <t>Brunhild</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Beatrix</t>
+  </si>
+  <si>
+    <t>Cristiana</t>
+  </si>
+  <si>
+    <t>Eleanor</t>
+  </si>
+  <si>
+    <t>Emeline</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Juliana</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Matilda</t>
+  </si>
+  <si>
+    <t>Mirabelle</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Helena</t>
+  </si>
+  <si>
+    <t>Guinevere</t>
+  </si>
+  <si>
+    <t>Isolde</t>
+  </si>
+  <si>
+    <t>Maerwynn</t>
+  </si>
+  <si>
+    <t>Muriel</t>
+  </si>
+  <si>
+    <t>Winifred</t>
+  </si>
+  <si>
+    <t>Godiva</t>
+  </si>
+  <si>
+    <t>Catrain</t>
+  </si>
+  <si>
+    <t>Angmar</t>
+  </si>
+  <si>
+    <t>Gussalen</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Josselyn</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Gwendolynn</t>
+  </si>
+  <si>
+    <t>Enndolynn</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>Krea</t>
+  </si>
+  <si>
+    <t>Rainydayas</t>
+  </si>
+  <si>
+    <t>Atheena</t>
+  </si>
+  <si>
+    <t>Dimia</t>
+  </si>
+  <si>
+    <t>Aleida</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>Alexia</t>
+  </si>
+  <si>
+    <t>Katelyn</t>
+  </si>
+  <si>
+    <t>Katrina</t>
+  </si>
+  <si>
+    <t>Loreena</t>
+  </si>
+  <si>
+    <t>Kaylein</t>
+  </si>
+  <si>
+    <t>Seraphina</t>
+  </si>
+  <si>
+    <t>Duraina</t>
+  </si>
+  <si>
+    <t>Ryia</t>
+  </si>
+  <si>
+    <t>Farfelee</t>
+  </si>
+  <si>
+    <t>Benevolence</t>
+  </si>
+  <si>
+    <t>Brangian</t>
+  </si>
+  <si>
+    <t>Elspeth</t>
+  </si>
+  <si>
+    <t>Alys</t>
+  </si>
+  <si>
+    <t>Ellyn</t>
+  </si>
+  <si>
+    <t>Helewys</t>
+  </si>
+  <si>
+    <t>Malkyn</t>
+  </si>
+  <si>
+    <t>Sybbyl</t>
+  </si>
+  <si>
+    <t>Ysmay</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Bess</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Phrowenia</t>
+  </si>
+  <si>
+    <t>Iseult</t>
   </si>
 </sst>
 </file>
@@ -2740,7 +3540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739231DF-2F6A-450B-A6C1-332169A2B218}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -3174,7 +3974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D493AC6E-E1AC-4C01-A5C1-40808155DAE1}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A178" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4789,8 +5589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5312129D-C314-47C5-9C9B-E909C7977EE0}">
   <dimension ref="A1:C252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6185,4 +6985,1189 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F34D83D-7FF6-4C76-B3D8-1A722A2AFDD5}">
+  <dimension ref="A1:C91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>906</v>
+      </c>
+      <c r="C4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>831</v>
+      </c>
+      <c r="C5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>832</v>
+      </c>
+      <c r="C6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>833</v>
+      </c>
+      <c r="C7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C8" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>834</v>
+      </c>
+      <c r="C9" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>907</v>
+      </c>
+      <c r="C10" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>835</v>
+      </c>
+      <c r="C11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>908</v>
+      </c>
+      <c r="C12" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>899</v>
+      </c>
+      <c r="C13" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>836</v>
+      </c>
+      <c r="C14" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C15" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>838</v>
+      </c>
+      <c r="C16" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>839</v>
+      </c>
+      <c r="C17" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>840</v>
+      </c>
+      <c r="C18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>900</v>
+      </c>
+      <c r="C19" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>841</v>
+      </c>
+      <c r="C20" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>909</v>
+      </c>
+      <c r="C21" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>901</v>
+      </c>
+      <c r="C22" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>910</v>
+      </c>
+      <c r="C23" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>842</v>
+      </c>
+      <c r="C24" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>843</v>
+      </c>
+      <c r="C25" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>844</v>
+      </c>
+      <c r="C26" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>845</v>
+      </c>
+      <c r="C27" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>846</v>
+      </c>
+      <c r="C28" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>847</v>
+      </c>
+      <c r="C29" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>848</v>
+      </c>
+      <c r="C30" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>911</v>
+      </c>
+      <c r="C31" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>849</v>
+      </c>
+      <c r="C32" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>850</v>
+      </c>
+      <c r="C33" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>851</v>
+      </c>
+      <c r="C34" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>852</v>
+      </c>
+      <c r="C35" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>853</v>
+      </c>
+      <c r="C36" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>854</v>
+      </c>
+      <c r="C37" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>855</v>
+      </c>
+      <c r="C38" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>856</v>
+      </c>
+      <c r="C39" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>857</v>
+      </c>
+      <c r="C40" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>912</v>
+      </c>
+      <c r="C41" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>858</v>
+      </c>
+      <c r="C42" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>859</v>
+      </c>
+      <c r="C43" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>860</v>
+      </c>
+      <c r="C44" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>861</v>
+      </c>
+      <c r="C45" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>913</v>
+      </c>
+      <c r="C46" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>914</v>
+      </c>
+      <c r="C47" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>862</v>
+      </c>
+      <c r="C48" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>863</v>
+      </c>
+      <c r="C49" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>915</v>
+      </c>
+      <c r="C50" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>864</v>
+      </c>
+      <c r="C51" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>902</v>
+      </c>
+      <c r="C52" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C325151E-BE15-4F1C-A990-422275B48506}">
+  <dimension ref="A1:C75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>924</v>
+      </c>
+      <c r="C5" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>925</v>
+      </c>
+      <c r="C6" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>926</v>
+      </c>
+      <c r="C7" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>927</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>928</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>929</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>930</v>
+      </c>
+      <c r="C11" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>931</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>932</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>933</v>
+      </c>
+      <c r="C14" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>934</v>
+      </c>
+      <c r="C15" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>935</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>936</v>
+      </c>
+      <c r="C17" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>937</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>938</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>939</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>940</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>941</v>
+      </c>
+      <c r="C22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>942</v>
+      </c>
+      <c r="C23" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>943</v>
+      </c>
+      <c r="C24" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>944</v>
+      </c>
+      <c r="C25" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>970</v>
+      </c>
+      <c r="C26" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>945</v>
+      </c>
+      <c r="C27" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>946</v>
+      </c>
+      <c r="C28" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>947</v>
+      </c>
+      <c r="C29" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>948</v>
+      </c>
+      <c r="C30" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>949</v>
+      </c>
+      <c r="C31" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>971</v>
+      </c>
+      <c r="C32" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>950</v>
+      </c>
+      <c r="C33" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>951</v>
+      </c>
+      <c r="C34" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>952</v>
+      </c>
+      <c r="C35" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>953</v>
+      </c>
+      <c r="C36" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>954</v>
+      </c>
+      <c r="C37" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>949</v>
+      </c>
+      <c r="C38" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>955</v>
+      </c>
+      <c r="C39" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>956</v>
+      </c>
+      <c r="C40" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>957</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>958</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>959</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>960</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>969</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>961</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>962</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>963</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>964</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>965</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>966</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>967</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>968</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>